--- a/data/pca/factorExposure/factorExposure_2016-06-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.009424189708443614</v>
+        <v>0.01231504648273893</v>
       </c>
       <c r="C2">
-        <v>-0.05080570122518317</v>
+        <v>0.04058398950219253</v>
       </c>
       <c r="D2">
-        <v>-0.03856040010885536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0622959258375719</v>
+      </c>
+      <c r="E2">
+        <v>0.07622386588242097</v>
+      </c>
+      <c r="F2">
+        <v>0.0605174289181389</v>
+      </c>
+      <c r="G2">
+        <v>-0.04350884828545967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03952080154717464</v>
+        <v>0.02517553725785973</v>
       </c>
       <c r="C3">
-        <v>-0.1147511068671978</v>
+        <v>0.07499915860297793</v>
       </c>
       <c r="D3">
-        <v>-0.09058100158635229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0823671865190785</v>
+      </c>
+      <c r="E3">
+        <v>0.06399153109940468</v>
+      </c>
+      <c r="F3">
+        <v>-0.02483545652987996</v>
+      </c>
+      <c r="G3">
+        <v>0.03640717163192762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0592210300459556</v>
+        <v>0.05667807878613425</v>
       </c>
       <c r="C4">
-        <v>-0.06071561335113317</v>
+        <v>0.06415541056411556</v>
       </c>
       <c r="D4">
-        <v>-0.0347004583821783</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06050232377839678</v>
+      </c>
+      <c r="E4">
+        <v>0.07820787391615509</v>
+      </c>
+      <c r="F4">
+        <v>0.07359025137514759</v>
+      </c>
+      <c r="G4">
+        <v>0.03548577957066141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03870321608533005</v>
+        <v>0.03497811483652587</v>
       </c>
       <c r="C6">
-        <v>-0.03909705349327988</v>
+        <v>0.03136539202308614</v>
       </c>
       <c r="D6">
-        <v>-0.03060022352586424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06306666151675076</v>
+      </c>
+      <c r="E6">
+        <v>0.07921225568627438</v>
+      </c>
+      <c r="F6">
+        <v>0.04962076298527118</v>
+      </c>
+      <c r="G6">
+        <v>0.02151061610373087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02036989641209641</v>
+        <v>0.01758291864674718</v>
       </c>
       <c r="C7">
-        <v>-0.04459801429484653</v>
+        <v>0.03838861483341405</v>
       </c>
       <c r="D7">
-        <v>0.004071071644905665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03875170295006888</v>
+      </c>
+      <c r="E7">
+        <v>0.05600675146621838</v>
+      </c>
+      <c r="F7">
+        <v>0.09395262505160232</v>
+      </c>
+      <c r="G7">
+        <v>0.009382094385938396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003660427318353439</v>
+        <v>0.002654079747268389</v>
       </c>
       <c r="C8">
-        <v>-0.03128699948258364</v>
+        <v>0.02992684539937489</v>
       </c>
       <c r="D8">
-        <v>-0.02208370573531991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03237245459577012</v>
+      </c>
+      <c r="E8">
+        <v>0.0536487407052216</v>
+      </c>
+      <c r="F8">
+        <v>0.03143027615766785</v>
+      </c>
+      <c r="G8">
+        <v>0.005650073232446323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03234682802900625</v>
+        <v>0.03618144262339898</v>
       </c>
       <c r="C9">
-        <v>-0.04747448596235344</v>
+        <v>0.05131704060498674</v>
       </c>
       <c r="D9">
-        <v>-0.01796113381801462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04379759282019859</v>
+      </c>
+      <c r="E9">
+        <v>0.06642170372814567</v>
+      </c>
+      <c r="F9">
+        <v>0.07968193992434602</v>
+      </c>
+      <c r="G9">
+        <v>0.02178334515887621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08081947709593365</v>
+        <v>0.1022107257175761</v>
       </c>
       <c r="C10">
-        <v>0.1934042634154585</v>
+        <v>-0.1965495910911552</v>
       </c>
       <c r="D10">
-        <v>0.008488410212996633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.007978330325181773</v>
+      </c>
+      <c r="E10">
+        <v>0.04400020016363446</v>
+      </c>
+      <c r="F10">
+        <v>0.03399923870935664</v>
+      </c>
+      <c r="G10">
+        <v>0.01198373601556206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03942541221757283</v>
+        <v>0.03550381568066014</v>
       </c>
       <c r="C11">
-        <v>-0.05485789913676328</v>
+        <v>0.05035989732718447</v>
       </c>
       <c r="D11">
-        <v>-0.01702369750913568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03459224682149788</v>
+      </c>
+      <c r="E11">
+        <v>0.02159829496406398</v>
+      </c>
+      <c r="F11">
+        <v>0.06377118755047244</v>
+      </c>
+      <c r="G11">
+        <v>0.01736850171336688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04087384695467383</v>
+        <v>0.03766619997374181</v>
       </c>
       <c r="C12">
-        <v>-0.05022304877006899</v>
+        <v>0.04782001290331247</v>
       </c>
       <c r="D12">
-        <v>-0.006430113301166447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02884071031897654</v>
+      </c>
+      <c r="E12">
+        <v>0.03001924999739243</v>
+      </c>
+      <c r="F12">
+        <v>0.0643127775826539</v>
+      </c>
+      <c r="G12">
+        <v>0.01379700621772722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01164393164977737</v>
+        <v>0.01061028444016772</v>
       </c>
       <c r="C13">
-        <v>-0.05413277038122164</v>
+        <v>0.04416397484480179</v>
       </c>
       <c r="D13">
-        <v>-0.01566484933111826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05444801022176574</v>
+      </c>
+      <c r="E13">
+        <v>0.09055164233771112</v>
+      </c>
+      <c r="F13">
+        <v>0.0864452835126171</v>
+      </c>
+      <c r="G13">
+        <v>0.0197732585941521</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006050321653323956</v>
+        <v>0.004179843244576798</v>
       </c>
       <c r="C14">
-        <v>-0.04032658071079136</v>
+        <v>0.03391062149148812</v>
       </c>
       <c r="D14">
-        <v>0.01070239836394879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02590722253572451</v>
+      </c>
+      <c r="E14">
+        <v>0.04445977191438662</v>
+      </c>
+      <c r="F14">
+        <v>0.08823681831210718</v>
+      </c>
+      <c r="G14">
+        <v>-0.004464022186242611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002441882803497106</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004892862179732778</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007201791999248296</v>
+      </c>
+      <c r="E15">
+        <v>0.003162000439905571</v>
+      </c>
+      <c r="F15">
+        <v>0.005774444291886798</v>
+      </c>
+      <c r="G15">
+        <v>4.526945277547198e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03599710196040765</v>
+        <v>0.03354423436829623</v>
       </c>
       <c r="C16">
-        <v>-0.0481305051724311</v>
+        <v>0.04536850113723531</v>
       </c>
       <c r="D16">
-        <v>-0.01036886531709662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02795317680007064</v>
+      </c>
+      <c r="E16">
+        <v>0.03548568667843677</v>
+      </c>
+      <c r="F16">
+        <v>0.06433994071481237</v>
+      </c>
+      <c r="G16">
+        <v>0.002485270438286085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01916429117236231</v>
+        <v>0.01505701975970675</v>
       </c>
       <c r="C19">
-        <v>-0.06607627119146585</v>
+        <v>0.04922306829612499</v>
       </c>
       <c r="D19">
-        <v>-0.08205021052650031</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08982953998139347</v>
+      </c>
+      <c r="E19">
+        <v>0.1019146877219482</v>
+      </c>
+      <c r="F19">
+        <v>0.06257121743825442</v>
+      </c>
+      <c r="G19">
+        <v>-0.02811909827504471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01448173562644791</v>
+        <v>0.01229689486919203</v>
       </c>
       <c r="C20">
-        <v>-0.0486629158512293</v>
+        <v>0.04022447865014438</v>
       </c>
       <c r="D20">
-        <v>-0.01282355780075935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03751055561345988</v>
+      </c>
+      <c r="E20">
+        <v>0.07314295240245569</v>
+      </c>
+      <c r="F20">
+        <v>0.06932720507471922</v>
+      </c>
+      <c r="G20">
+        <v>0.006502696808715897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.00863410172225749</v>
+        <v>0.008424125921064875</v>
       </c>
       <c r="C21">
-        <v>-0.04976265557773871</v>
+        <v>0.04304032395082154</v>
       </c>
       <c r="D21">
-        <v>-0.03648598577536342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06640512696748509</v>
+      </c>
+      <c r="E21">
+        <v>0.1122143121781059</v>
+      </c>
+      <c r="F21">
+        <v>0.1083946859187993</v>
+      </c>
+      <c r="G21">
+        <v>0.005254318153991024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0007908393525644294</v>
+        <v>0.002537740259403432</v>
       </c>
       <c r="C22">
-        <v>-0.0006412692450806262</v>
+        <v>0.02455590532750469</v>
       </c>
       <c r="D22">
-        <v>-0.001604448624312637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04149963332685169</v>
+      </c>
+      <c r="E22">
+        <v>0.03489756543637623</v>
+      </c>
+      <c r="F22">
+        <v>0.00933201493711589</v>
+      </c>
+      <c r="G22">
+        <v>0.03702277190748905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0007964347780264156</v>
+        <v>0.002609242518173308</v>
       </c>
       <c r="C23">
-        <v>-0.0006413577987216962</v>
+        <v>0.02470512979709844</v>
       </c>
       <c r="D23">
-        <v>-0.001611591906890278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04116754698286307</v>
+      </c>
+      <c r="E23">
+        <v>0.03517126355183825</v>
+      </c>
+      <c r="F23">
+        <v>0.009106697337168575</v>
+      </c>
+      <c r="G23">
+        <v>0.03722194734655758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03248682180193338</v>
+        <v>0.03324067431943524</v>
       </c>
       <c r="C24">
-        <v>-0.05087512689154102</v>
+        <v>0.05340639574183025</v>
       </c>
       <c r="D24">
-        <v>-0.01121874701839777</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02840278052770815</v>
+      </c>
+      <c r="E24">
+        <v>0.0364577194537607</v>
+      </c>
+      <c r="F24">
+        <v>0.07066397063025216</v>
+      </c>
+      <c r="G24">
+        <v>0.009717782913019885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04601348489299651</v>
+        <v>0.04305282237979795</v>
       </c>
       <c r="C25">
-        <v>-0.06214778725711388</v>
+        <v>0.05757126048884829</v>
       </c>
       <c r="D25">
-        <v>-0.002349580747814836</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02678603379797018</v>
+      </c>
+      <c r="E25">
+        <v>0.02867184925126048</v>
+      </c>
+      <c r="F25">
+        <v>0.07404132515368125</v>
+      </c>
+      <c r="G25">
+        <v>0.02744077103767467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01478365388364161</v>
+        <v>0.01428018169612445</v>
       </c>
       <c r="C26">
-        <v>-0.02036417586278468</v>
+        <v>0.01881789424257651</v>
       </c>
       <c r="D26">
-        <v>-0.0004036966733864608</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02544668555105667</v>
+      </c>
+      <c r="E26">
+        <v>0.04478543325396807</v>
+      </c>
+      <c r="F26">
+        <v>0.06334718178740206</v>
+      </c>
+      <c r="G26">
+        <v>-0.01360348876640717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09806542019364996</v>
+        <v>0.1384664303327001</v>
       </c>
       <c r="C28">
-        <v>0.2394222507234968</v>
+        <v>-0.2473708395666555</v>
       </c>
       <c r="D28">
-        <v>0.008787833600533141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02191308964216535</v>
+      </c>
+      <c r="E28">
+        <v>0.06053016593257647</v>
+      </c>
+      <c r="F28">
+        <v>0.05342339954833125</v>
+      </c>
+      <c r="G28">
+        <v>0.0224032485087469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006477743998801507</v>
+        <v>0.005556800419288083</v>
       </c>
       <c r="C29">
-        <v>-0.03260653802162279</v>
+        <v>0.02997039306492147</v>
       </c>
       <c r="D29">
-        <v>0.01503158531451266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01969780004476503</v>
+      </c>
+      <c r="E29">
+        <v>0.04452871004465031</v>
+      </c>
+      <c r="F29">
+        <v>0.08219942446902208</v>
+      </c>
+      <c r="G29">
+        <v>0.009369453618659984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04379869470178083</v>
+        <v>0.039982386042516</v>
       </c>
       <c r="C30">
-        <v>-0.0622300159399033</v>
+        <v>0.06249556423138965</v>
       </c>
       <c r="D30">
-        <v>-0.07669243501351726</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1062601296905663</v>
+      </c>
+      <c r="E30">
+        <v>0.06821623042655685</v>
+      </c>
+      <c r="F30">
+        <v>0.0780309706803837</v>
+      </c>
+      <c r="G30">
+        <v>-0.01326963877697667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05385278946897788</v>
+        <v>0.05537594919615477</v>
       </c>
       <c r="C31">
-        <v>-0.04331908478975927</v>
+        <v>0.05971306505174663</v>
       </c>
       <c r="D31">
-        <v>0.02657958380486321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.008890975832282731</v>
+      </c>
+      <c r="E31">
+        <v>0.06792337522637767</v>
+      </c>
+      <c r="F31">
+        <v>0.06411083832727087</v>
+      </c>
+      <c r="G31">
+        <v>0.04674416364334584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002031261075832765</v>
+        <v>0.005030044409347928</v>
       </c>
       <c r="C32">
-        <v>-0.03920188077457119</v>
+        <v>0.03305895253926477</v>
       </c>
       <c r="D32">
-        <v>-0.04637884460799772</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0563839909015698</v>
+      </c>
+      <c r="E32">
+        <v>0.05057236254717042</v>
+      </c>
+      <c r="F32">
+        <v>0.06335880625938203</v>
+      </c>
+      <c r="G32">
+        <v>-0.01247185094771417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02495807356440526</v>
+        <v>0.02292825335422768</v>
       </c>
       <c r="C33">
-        <v>-0.06166114636248712</v>
+        <v>0.05518634294295198</v>
       </c>
       <c r="D33">
-        <v>-0.04830769489933852</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08002969008223104</v>
+      </c>
+      <c r="E33">
+        <v>0.08090004529830798</v>
+      </c>
+      <c r="F33">
+        <v>0.109512361744294</v>
+      </c>
+      <c r="G33">
+        <v>0.02064824501916872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04454919518360983</v>
+        <v>0.04078241271175891</v>
       </c>
       <c r="C34">
-        <v>-0.0652636875804487</v>
+        <v>0.06428926650645246</v>
       </c>
       <c r="D34">
-        <v>-0.01627234048162404</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03678637530158569</v>
+      </c>
+      <c r="E34">
+        <v>0.00946144115143821</v>
+      </c>
+      <c r="F34">
+        <v>0.07690549731227239</v>
+      </c>
+      <c r="G34">
+        <v>0.0127303482844018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01384263364344394</v>
+        <v>0.01335908603329341</v>
       </c>
       <c r="C36">
-        <v>-0.0162312054537226</v>
+        <v>0.01326661282643291</v>
       </c>
       <c r="D36">
-        <v>0.0003739041856414898</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02735443126177273</v>
+      </c>
+      <c r="E36">
+        <v>0.05411295435005576</v>
+      </c>
+      <c r="F36">
+        <v>0.06844055298146363</v>
+      </c>
+      <c r="G36">
+        <v>0.00899199103231544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02837782815731417</v>
+        <v>0.02270559847553828</v>
       </c>
       <c r="C38">
-        <v>-0.02960931757767123</v>
+        <v>0.02334818969651467</v>
       </c>
       <c r="D38">
-        <v>0.008318925107196437</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02505816605200946</v>
+      </c>
+      <c r="E38">
+        <v>0.04530625224665365</v>
+      </c>
+      <c r="F38">
+        <v>0.05391603229047467</v>
+      </c>
+      <c r="G38">
+        <v>0.002497947259081604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04281705260079875</v>
+        <v>0.03850466112769119</v>
       </c>
       <c r="C39">
-        <v>-0.06902168961004948</v>
+        <v>0.06665405385207462</v>
       </c>
       <c r="D39">
-        <v>-0.0221073469891563</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0541612286214901</v>
+      </c>
+      <c r="E39">
+        <v>0.04043400695632138</v>
+      </c>
+      <c r="F39">
+        <v>0.08058635796825989</v>
+      </c>
+      <c r="G39">
+        <v>-0.01185855113076867</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01221428377296739</v>
+        <v>0.01302291503354606</v>
       </c>
       <c r="C40">
-        <v>-0.05313400600546182</v>
+        <v>0.03912593467022329</v>
       </c>
       <c r="D40">
-        <v>-0.01693701451953677</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03603913574068512</v>
+      </c>
+      <c r="E40">
+        <v>0.07994364034924024</v>
+      </c>
+      <c r="F40">
+        <v>0.06342103290350082</v>
+      </c>
+      <c r="G40">
+        <v>0.03847864963361728</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0194590242917659</v>
+        <v>0.01834946314068708</v>
       </c>
       <c r="C41">
-        <v>-0.00866841635995874</v>
+        <v>0.00853634607228001</v>
       </c>
       <c r="D41">
-        <v>0.001903355564832122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0153132274401301</v>
+      </c>
+      <c r="E41">
+        <v>0.05291926533181132</v>
+      </c>
+      <c r="F41">
+        <v>0.05899963649313195</v>
+      </c>
+      <c r="G41">
+        <v>0.002312011591699991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03601874878156804</v>
+        <v>0.02835058797551445</v>
       </c>
       <c r="C43">
-        <v>-0.03007787471908083</v>
+        <v>0.02344671606990548</v>
       </c>
       <c r="D43">
-        <v>-0.02511079824213783</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04233330783111418</v>
+      </c>
+      <c r="E43">
+        <v>0.06673635507514664</v>
+      </c>
+      <c r="F43">
+        <v>0.06603473033568526</v>
+      </c>
+      <c r="G43">
+        <v>0.01991038265314583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01119043547334059</v>
+        <v>0.01296929230845047</v>
       </c>
       <c r="C44">
-        <v>-0.06654575755019504</v>
+        <v>0.05028279825056088</v>
       </c>
       <c r="D44">
-        <v>-0.01112293792542015</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03933084166091972</v>
+      </c>
+      <c r="E44">
+        <v>0.08524562425914577</v>
+      </c>
+      <c r="F44">
+        <v>0.06786879025506939</v>
+      </c>
+      <c r="G44">
+        <v>-0.007599172717170805</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006118415694831435</v>
+        <v>0.008008178358800877</v>
       </c>
       <c r="C46">
-        <v>-0.0265148715530291</v>
+        <v>0.02800275335784081</v>
       </c>
       <c r="D46">
-        <v>0.01787942979454597</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01303844612250223</v>
+      </c>
+      <c r="E46">
+        <v>0.05402365318690397</v>
+      </c>
+      <c r="F46">
+        <v>0.09664509240758312</v>
+      </c>
+      <c r="G46">
+        <v>0.002224713300306339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0810905305874991</v>
+        <v>0.08676102299876326</v>
       </c>
       <c r="C47">
-        <v>-0.07038270497769421</v>
+        <v>0.08092251535298084</v>
       </c>
       <c r="D47">
-        <v>0.0278815107438563</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01549339678804709</v>
+      </c>
+      <c r="E47">
+        <v>0.07070835325095814</v>
+      </c>
+      <c r="F47">
+        <v>0.06975565225990295</v>
+      </c>
+      <c r="G47">
+        <v>0.05153932816139307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01750797507613302</v>
+        <v>0.01565851308672501</v>
       </c>
       <c r="C48">
-        <v>-0.01602197604405942</v>
+        <v>0.01730554412805125</v>
       </c>
       <c r="D48">
-        <v>0.01466479765033941</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01644671184677838</v>
+      </c>
+      <c r="E48">
+        <v>0.06537086744039591</v>
+      </c>
+      <c r="F48">
+        <v>0.08537318923058748</v>
+      </c>
+      <c r="G48">
+        <v>0.008089072733648943</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0787070587082481</v>
+        <v>0.07043826623902215</v>
       </c>
       <c r="C50">
-        <v>-0.07884739484779382</v>
+        <v>0.07478546887512115</v>
       </c>
       <c r="D50">
-        <v>0.02758230343239637</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001489680529655516</v>
+      </c>
+      <c r="E50">
+        <v>0.07482019974473125</v>
+      </c>
+      <c r="F50">
+        <v>0.04879728306428412</v>
+      </c>
+      <c r="G50">
+        <v>0.06888617959748192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01388238642966729</v>
+        <v>0.01003491557914158</v>
       </c>
       <c r="C51">
-        <v>-0.05069420558402044</v>
+        <v>0.03323361460380992</v>
       </c>
       <c r="D51">
-        <v>-0.02767035924265554</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04902414363488932</v>
+      </c>
+      <c r="E51">
+        <v>0.04300898672763615</v>
+      </c>
+      <c r="F51">
+        <v>0.07124053865205106</v>
+      </c>
+      <c r="G51">
+        <v>-0.02013335199708193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.07918810824642371</v>
+        <v>0.09292951190401259</v>
       </c>
       <c r="C53">
-        <v>-0.08065210157331718</v>
+        <v>0.08933930079652233</v>
       </c>
       <c r="D53">
-        <v>0.03874915809005961</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03882164709832568</v>
+      </c>
+      <c r="E53">
+        <v>0.06932567827918873</v>
+      </c>
+      <c r="F53">
+        <v>0.07868558515661984</v>
+      </c>
+      <c r="G53">
+        <v>0.06507860175134245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02974961416052043</v>
+        <v>0.02745869695570099</v>
       </c>
       <c r="C54">
-        <v>-0.02947154173851778</v>
+        <v>0.02826905262467391</v>
       </c>
       <c r="D54">
-        <v>-0.004218783639077343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03127213534088057</v>
+      </c>
+      <c r="E54">
+        <v>0.0520492344113257</v>
+      </c>
+      <c r="F54">
+        <v>0.09284527734695314</v>
+      </c>
+      <c r="G54">
+        <v>0.01048002833146941</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07314843841195121</v>
+        <v>0.08445123146766445</v>
       </c>
       <c r="C55">
-        <v>-0.06021423071723678</v>
+        <v>0.07163685809044616</v>
       </c>
       <c r="D55">
-        <v>0.04933848706324921</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04753765192518308</v>
+      </c>
+      <c r="E55">
+        <v>0.05205302395932918</v>
+      </c>
+      <c r="F55">
+        <v>0.05463677228642695</v>
+      </c>
+      <c r="G55">
+        <v>0.05325725251617743</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1422852019435298</v>
+        <v>0.1462945010865551</v>
       </c>
       <c r="C56">
-        <v>-0.09700074113804254</v>
+        <v>0.1082166298793659</v>
       </c>
       <c r="D56">
-        <v>0.04202974581795935</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04562381421404556</v>
+      </c>
+      <c r="E56">
+        <v>0.05279446105697564</v>
+      </c>
+      <c r="F56">
+        <v>0.04025066896937064</v>
+      </c>
+      <c r="G56">
+        <v>0.05909422383201918</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.0009212006974090048</v>
+        <v>-0.0007343958829887585</v>
       </c>
       <c r="C57">
-        <v>0.005844947384548954</v>
+        <v>-0.003422899470782994</v>
       </c>
       <c r="D57">
-        <v>-0.007453475451361971</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.005907149797784196</v>
+      </c>
+      <c r="E57">
+        <v>0.003244488582755665</v>
+      </c>
+      <c r="F57">
+        <v>0.005652439112070896</v>
+      </c>
+      <c r="G57">
+        <v>0.00351927411545629</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04339460533718981</v>
+        <v>0.02630332715856746</v>
       </c>
       <c r="C58">
-        <v>-0.02838727893222555</v>
+        <v>0.02607042897012078</v>
       </c>
       <c r="D58">
-        <v>-0.6328812767959777</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4016880172748272</v>
+      </c>
+      <c r="E58">
+        <v>0.6302030610976413</v>
+      </c>
+      <c r="F58">
+        <v>-0.5779452904087546</v>
+      </c>
+      <c r="G58">
+        <v>-0.1057501795599581</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1355705792720364</v>
+        <v>0.1455810219556397</v>
       </c>
       <c r="C59">
-        <v>0.1944369509033725</v>
+        <v>-0.1852155460778183</v>
       </c>
       <c r="D59">
-        <v>-0.01999846090956637</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02693548317957064</v>
+      </c>
+      <c r="E59">
+        <v>0.0260801540071636</v>
+      </c>
+      <c r="F59">
+        <v>0.01986578685092706</v>
+      </c>
+      <c r="G59">
+        <v>-0.03118698488933368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3092326466837734</v>
+        <v>0.2813473945766374</v>
       </c>
       <c r="C60">
-        <v>-0.1055834470363935</v>
+        <v>0.1029978889458591</v>
       </c>
       <c r="D60">
-        <v>-0.167136690345795</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2360619861518177</v>
+      </c>
+      <c r="E60">
+        <v>-0.2671411212458156</v>
+      </c>
+      <c r="F60">
+        <v>-0.07905837644392502</v>
+      </c>
+      <c r="G60">
+        <v>0.04499348471492685</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04063729257908767</v>
+        <v>0.03975058730830201</v>
       </c>
       <c r="C61">
-        <v>-0.06593972364782133</v>
+        <v>0.06232570701234968</v>
       </c>
       <c r="D61">
-        <v>-0.01720466021721674</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04580739767997404</v>
+      </c>
+      <c r="E61">
+        <v>0.04482486676933364</v>
+      </c>
+      <c r="F61">
+        <v>0.07106171032588296</v>
+      </c>
+      <c r="G61">
+        <v>0.01310827387679171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01442325879011038</v>
+        <v>0.014270026347717</v>
       </c>
       <c r="C63">
-        <v>-0.03359532395889085</v>
+        <v>0.03190752236660076</v>
       </c>
       <c r="D63">
-        <v>0.01029978243222948</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02016569458790657</v>
+      </c>
+      <c r="E63">
+        <v>0.05656461871345116</v>
+      </c>
+      <c r="F63">
+        <v>0.06391462302865103</v>
+      </c>
+      <c r="G63">
+        <v>0.02856513555824322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04760384781070338</v>
+        <v>0.05533360722428246</v>
       </c>
       <c r="C64">
-        <v>-0.04725614882463671</v>
+        <v>0.05630157210138304</v>
       </c>
       <c r="D64">
-        <v>-0.006186499657935055</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.009725999822475951</v>
+      </c>
+      <c r="E64">
+        <v>0.03857403406251597</v>
+      </c>
+      <c r="F64">
+        <v>0.0825873463070374</v>
+      </c>
+      <c r="G64">
+        <v>0.01183328357224103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08511021763324042</v>
+        <v>0.06844461428165589</v>
       </c>
       <c r="C65">
-        <v>-0.03401425923276003</v>
+        <v>0.03214510008938888</v>
       </c>
       <c r="D65">
-        <v>-0.05089305402666817</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08396428201440879</v>
+      </c>
+      <c r="E65">
+        <v>0.04138381105461681</v>
+      </c>
+      <c r="F65">
+        <v>-6.618280261495473e-05</v>
+      </c>
+      <c r="G65">
+        <v>0.001011674866215768</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05939969255853916</v>
+        <v>0.05046742213325155</v>
       </c>
       <c r="C66">
-        <v>-0.09713466563475388</v>
+        <v>0.08728585731855042</v>
       </c>
       <c r="D66">
-        <v>-0.04517980149304766</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08055415843111316</v>
+      </c>
+      <c r="E66">
+        <v>0.04708151970456765</v>
+      </c>
+      <c r="F66">
+        <v>0.0823080539022107</v>
+      </c>
+      <c r="G66">
+        <v>0.004920348575554186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05087759157779635</v>
+        <v>0.04487993179800684</v>
       </c>
       <c r="C67">
-        <v>-0.03336405439676862</v>
+        <v>0.02956228654317052</v>
       </c>
       <c r="D67">
-        <v>0.0101890484203855</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0118857749338245</v>
+      </c>
+      <c r="E67">
+        <v>0.02415255613793024</v>
+      </c>
+      <c r="F67">
+        <v>0.04509095560196835</v>
+      </c>
+      <c r="G67">
+        <v>0.009856680122778474</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1338229247654102</v>
+        <v>0.1540855985810752</v>
       </c>
       <c r="C68">
-        <v>0.2810843883247845</v>
+        <v>-0.2469279758334808</v>
       </c>
       <c r="D68">
-        <v>0.01427942425113111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01858989834378255</v>
+      </c>
+      <c r="E68">
+        <v>0.04312621131010301</v>
+      </c>
+      <c r="F68">
+        <v>0.01305606790489896</v>
+      </c>
+      <c r="G68">
+        <v>0.009965304180988377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08800494210465974</v>
+        <v>0.08613542589996874</v>
       </c>
       <c r="C69">
-        <v>-0.07026210599712185</v>
+        <v>0.08838170658915102</v>
       </c>
       <c r="D69">
-        <v>0.03626903797293943</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.006709952631005571</v>
+      </c>
+      <c r="E69">
+        <v>0.05474616476804384</v>
+      </c>
+      <c r="F69">
+        <v>0.087774059888215</v>
+      </c>
+      <c r="G69">
+        <v>0.03025054887343537</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1210600654073898</v>
+        <v>0.1446718371851455</v>
       </c>
       <c r="C71">
-        <v>0.2489094856342948</v>
+        <v>-0.2361719315808568</v>
       </c>
       <c r="D71">
-        <v>-0.01792194984046064</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.007510523430379576</v>
+      </c>
+      <c r="E71">
+        <v>0.06567628827284763</v>
+      </c>
+      <c r="F71">
+        <v>0.04823606807360548</v>
+      </c>
+      <c r="G71">
+        <v>0.03909374461507437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0894551906370241</v>
+        <v>0.09856616995468201</v>
       </c>
       <c r="C72">
-        <v>-0.05858128854524302</v>
+        <v>0.05913966600939115</v>
       </c>
       <c r="D72">
-        <v>-0.01166968503917468</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.03317111347418554</v>
+      </c>
+      <c r="E72">
+        <v>0.02463804046701381</v>
+      </c>
+      <c r="F72">
+        <v>0.06636990281816453</v>
+      </c>
+      <c r="G72">
+        <v>0.03517923135580389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.40654706545321</v>
+        <v>0.3449791511691806</v>
       </c>
       <c r="C73">
-        <v>-0.06291257065414337</v>
+        <v>0.07414616795947022</v>
       </c>
       <c r="D73">
-        <v>-0.3988545288084841</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4761708159166432</v>
+      </c>
+      <c r="E73">
+        <v>-0.4756007339630544</v>
+      </c>
+      <c r="F73">
+        <v>-0.2219152136809004</v>
+      </c>
+      <c r="G73">
+        <v>0.1036452991873553</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1032572254488593</v>
+        <v>0.1086960707761965</v>
       </c>
       <c r="C74">
-        <v>-0.09644445690241162</v>
+        <v>0.09719098719284824</v>
       </c>
       <c r="D74">
-        <v>0.02325885203245403</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03124343149674545</v>
+      </c>
+      <c r="E74">
+        <v>0.06845206384853905</v>
+      </c>
+      <c r="F74">
+        <v>0.03843319302044993</v>
+      </c>
+      <c r="G74">
+        <v>0.07229186545299579</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2510309201426899</v>
+        <v>0.2561508266484084</v>
       </c>
       <c r="C75">
-        <v>-0.1073330518801009</v>
+        <v>0.1328794293254663</v>
       </c>
       <c r="D75">
-        <v>0.0941207160149624</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1260442241843926</v>
+      </c>
+      <c r="E75">
+        <v>0.06418875352473306</v>
+      </c>
+      <c r="F75">
+        <v>0.01697164600733588</v>
+      </c>
+      <c r="G75">
+        <v>0.07766366105848725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1099754587056147</v>
+        <v>0.1253173949351819</v>
       </c>
       <c r="C76">
-        <v>-0.09134967672974487</v>
+        <v>0.1003988242092052</v>
       </c>
       <c r="D76">
-        <v>0.0528128606296212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05875643079258071</v>
+      </c>
+      <c r="E76">
+        <v>0.0800889320540655</v>
+      </c>
+      <c r="F76">
+        <v>0.06041980994905239</v>
+      </c>
+      <c r="G76">
+        <v>0.05821853684332989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07502136520144319</v>
+        <v>0.05954916692054832</v>
       </c>
       <c r="C77">
-        <v>-0.06159607760725582</v>
+        <v>0.07199044117901575</v>
       </c>
       <c r="D77">
-        <v>-0.05021923291783035</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06124975008510225</v>
+      </c>
+      <c r="E77">
+        <v>0.09636604516647264</v>
+      </c>
+      <c r="F77">
+        <v>0.1114658352543882</v>
+      </c>
+      <c r="G77">
+        <v>-0.1421527923520111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0460588168849699</v>
+        <v>0.04301926012665952</v>
       </c>
       <c r="C78">
-        <v>-0.05331672594445395</v>
+        <v>0.05927700388435822</v>
       </c>
       <c r="D78">
-        <v>-0.02796855522241822</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06550297591421483</v>
+      </c>
+      <c r="E78">
+        <v>0.05060302557743762</v>
+      </c>
+      <c r="F78">
+        <v>0.08293010514340156</v>
+      </c>
+      <c r="G78">
+        <v>0.007475715238912187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02786209272248989</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04323457447731705</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06030341829763308</v>
+      </c>
+      <c r="E79">
+        <v>0.06656871595624432</v>
+      </c>
+      <c r="F79">
+        <v>0.03042946053310175</v>
+      </c>
+      <c r="G79">
+        <v>0.07868340833630108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04086046282269495</v>
+        <v>0.03147860988913381</v>
       </c>
       <c r="C80">
-        <v>-0.05422065909076584</v>
+        <v>0.05323632811015654</v>
       </c>
       <c r="D80">
-        <v>-0.02654908019817512</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04007581458262686</v>
+      </c>
+      <c r="E80">
+        <v>0.0149049971083297</v>
+      </c>
+      <c r="F80">
+        <v>0.03194936407724714</v>
+      </c>
+      <c r="G80">
+        <v>-0.04436569536951552</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1398942716731701</v>
+        <v>0.1394963575357767</v>
       </c>
       <c r="C81">
-        <v>-0.0810969000648763</v>
+        <v>0.09672561690830053</v>
       </c>
       <c r="D81">
-        <v>0.07738211248749767</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1012560592446706</v>
+      </c>
+      <c r="E81">
+        <v>0.08268989675956354</v>
+      </c>
+      <c r="F81">
+        <v>0.005545850539890904</v>
+      </c>
+      <c r="G81">
+        <v>0.05296267285441031</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1650679651274053</v>
+        <v>0.2054824988980919</v>
       </c>
       <c r="C82">
-        <v>-0.08385279261461773</v>
+        <v>0.1478582781657901</v>
       </c>
       <c r="D82">
-        <v>0.1511051048286097</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2233771811542504</v>
+      </c>
+      <c r="E82">
+        <v>0.0121406370338317</v>
+      </c>
+      <c r="F82">
+        <v>0.1094424703101338</v>
+      </c>
+      <c r="G82">
+        <v>0.05297347149668225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03811752279799359</v>
+        <v>0.02642593158182623</v>
       </c>
       <c r="C83">
-        <v>-0.0304938674576432</v>
+        <v>0.04244352239629835</v>
       </c>
       <c r="D83">
-        <v>-0.03364581757501054</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03229804608842974</v>
+      </c>
+      <c r="E83">
+        <v>0.02162180468679268</v>
+      </c>
+      <c r="F83">
+        <v>0.04063347316150848</v>
+      </c>
+      <c r="G83">
+        <v>-0.02117405078625567</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001799940486131673</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0008035031907972136</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001089615364244787</v>
+      </c>
+      <c r="E84">
+        <v>0.0007679019609334356</v>
+      </c>
+      <c r="F84">
+        <v>0.001023000443741277</v>
+      </c>
+      <c r="G84">
+        <v>-0.0003190961304373905</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2168632376773353</v>
+        <v>0.2013931010576212</v>
       </c>
       <c r="C85">
-        <v>-0.1045736357422677</v>
+        <v>0.1173896466469141</v>
       </c>
       <c r="D85">
-        <v>0.1222652920486519</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09885428210811271</v>
+      </c>
+      <c r="E85">
+        <v>-0.006022161399281923</v>
+      </c>
+      <c r="F85">
+        <v>-0.01099107206408811</v>
+      </c>
+      <c r="G85">
+        <v>0.1355551263246589</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.007006692791455589</v>
+        <v>0.009133116993034519</v>
       </c>
       <c r="C86">
-        <v>-0.03697191706801624</v>
+        <v>0.02641606258483132</v>
       </c>
       <c r="D86">
-        <v>-0.0354162833431279</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05872831454816706</v>
+      </c>
+      <c r="E86">
+        <v>0.06808990714515809</v>
+      </c>
+      <c r="F86">
+        <v>0.1238184285589584</v>
+      </c>
+      <c r="G86">
+        <v>-0.007878848211263754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0228079175269887</v>
+        <v>0.02195322984951685</v>
       </c>
       <c r="C87">
-        <v>-0.01034152704044457</v>
+        <v>0.01757351806258222</v>
       </c>
       <c r="D87">
-        <v>-0.08470591399190887</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08780619506814862</v>
+      </c>
+      <c r="E87">
+        <v>0.1181537794075965</v>
+      </c>
+      <c r="F87">
+        <v>0.06224671615727262</v>
+      </c>
+      <c r="G87">
+        <v>-0.04388244054776962</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.103450725457373</v>
+        <v>0.0915984975084923</v>
       </c>
       <c r="C88">
-        <v>-0.0689924211338106</v>
+        <v>0.06181159952414805</v>
       </c>
       <c r="D88">
-        <v>0.02742366585490916</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.004224693871644592</v>
+      </c>
+      <c r="E88">
+        <v>0.04594123531764429</v>
+      </c>
+      <c r="F88">
+        <v>0.06697278624064297</v>
+      </c>
+      <c r="G88">
+        <v>-0.02311056477538227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1933005420992982</v>
+        <v>0.224447915080861</v>
       </c>
       <c r="C89">
-        <v>0.3725312250663625</v>
+        <v>-0.377033860173567</v>
       </c>
       <c r="D89">
-        <v>0.02324981925760532</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01238778029102859</v>
+      </c>
+      <c r="E89">
+        <v>0.06731454123648394</v>
+      </c>
+      <c r="F89">
+        <v>0.07632772435489497</v>
+      </c>
+      <c r="G89">
+        <v>-0.06260472395240392</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1833895804011417</v>
+        <v>0.2023230311952547</v>
       </c>
       <c r="C90">
-        <v>0.3308469211365019</v>
+        <v>-0.3097366622575804</v>
       </c>
       <c r="D90">
-        <v>0.02576069430413931</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01753623630397254</v>
+      </c>
+      <c r="E90">
+        <v>0.0737103924597039</v>
+      </c>
+      <c r="F90">
+        <v>0.03533193816396378</v>
+      </c>
+      <c r="G90">
+        <v>-0.01367527961015787</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1868344976895537</v>
+        <v>0.1848945993613402</v>
       </c>
       <c r="C91">
-        <v>-0.126013344331559</v>
+        <v>0.1427996489079084</v>
       </c>
       <c r="D91">
-        <v>0.09269536866363555</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1059278886822153</v>
+      </c>
+      <c r="E91">
+        <v>0.06335097228976361</v>
+      </c>
+      <c r="F91">
+        <v>0.03161972697911052</v>
+      </c>
+      <c r="G91">
+        <v>0.05972958553508516</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1674718861403476</v>
+        <v>0.1828354649515597</v>
       </c>
       <c r="C92">
-        <v>0.2795167009207539</v>
+        <v>-0.2848526465517371</v>
       </c>
       <c r="D92">
-        <v>0.008298836494040274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01335754398977345</v>
+      </c>
+      <c r="E92">
+        <v>0.07357842145645428</v>
+      </c>
+      <c r="F92">
+        <v>0.08147145965597723</v>
+      </c>
+      <c r="G92">
+        <v>-0.007724424906668227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2059856312609972</v>
+        <v>0.2251944730727903</v>
       </c>
       <c r="C93">
-        <v>0.3345573732867864</v>
+        <v>-0.3169431862565626</v>
       </c>
       <c r="D93">
-        <v>0.02550738724610096</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0119686904779285</v>
+      </c>
+      <c r="E93">
+        <v>0.04649875520755749</v>
+      </c>
+      <c r="F93">
+        <v>0.03426663098829376</v>
+      </c>
+      <c r="G93">
+        <v>0.02955532892147419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3449135221795818</v>
+        <v>0.3460181532925573</v>
       </c>
       <c r="C94">
-        <v>-0.1586686143053861</v>
+        <v>0.1911968334755878</v>
       </c>
       <c r="D94">
-        <v>0.4887742966684994</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.5027719197343635</v>
+      </c>
+      <c r="E94">
+        <v>0.006091257798547494</v>
+      </c>
+      <c r="F94">
+        <v>-0.4471626415825754</v>
+      </c>
+      <c r="G94">
+        <v>-0.3433024350318628</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1097526791421141</v>
+        <v>0.08239252074497205</v>
       </c>
       <c r="C95">
-        <v>-0.07213424314644513</v>
+        <v>0.06333184592164294</v>
       </c>
       <c r="D95">
-        <v>-0.1298216892060542</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1629382730135144</v>
+      </c>
+      <c r="E95">
+        <v>-0.1106239543168131</v>
+      </c>
+      <c r="F95">
+        <v>0.2607379134345941</v>
+      </c>
+      <c r="G95">
+        <v>-0.8536248693333746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1941297468116168</v>
+        <v>0.1865839254771337</v>
       </c>
       <c r="C98">
-        <v>-0.0251827291410416</v>
+        <v>0.04361755732915239</v>
       </c>
       <c r="D98">
-        <v>-0.1538338932497753</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1930678690004633</v>
+      </c>
+      <c r="E98">
+        <v>-0.145342813999682</v>
+      </c>
+      <c r="F98">
+        <v>-0.03041112767335268</v>
+      </c>
+      <c r="G98">
+        <v>0.09391596200029441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006435796896709405</v>
+        <v>0.005615438196690066</v>
       </c>
       <c r="C101">
-        <v>-0.03260872356049375</v>
+        <v>0.0297087271132852</v>
       </c>
       <c r="D101">
-        <v>0.01571618999096237</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01912940144275095</v>
+      </c>
+      <c r="E101">
+        <v>0.04514732698729516</v>
+      </c>
+      <c r="F101">
+        <v>0.0818635385778852</v>
+      </c>
+      <c r="G101">
+        <v>0.008260408817814608</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1217483656102083</v>
+        <v>0.1242644936067896</v>
       </c>
       <c r="C102">
-        <v>-0.07580497501917756</v>
+        <v>0.1016313068731286</v>
       </c>
       <c r="D102">
-        <v>0.02596766051242453</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04244452383205628</v>
+      </c>
+      <c r="E102">
+        <v>-0.0006291356190096692</v>
+      </c>
+      <c r="F102">
+        <v>0.04693633651681265</v>
+      </c>
+      <c r="G102">
+        <v>0.01817003347767236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
